--- a/graphs/delay_aware_slicing/results/isolani/isolani_averages_throughput.xlsx
+++ b/graphs/delay_aware_slicing/results/isolani/isolani_averages_throughput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phisolani/Github/wifi_monitoring/graphs/delay_aware_slicing/results/isolani/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A33779-2522-9E4D-9674-6D1E865B6182}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05305A2-6644-294E-B82A-594D8BDFAC42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8720" yWindow="1640" windowWidth="19000" windowHeight="15940" activeTab="8" xr2:uid="{97F3A5D8-9CF7-0545-A3A1-9FD2CAE0107F}"/>
+    <workbookView xWindow="8720" yWindow="1640" windowWidth="19000" windowHeight="15940" activeTab="9" xr2:uid="{97F3A5D8-9CF7-0545-A3A1-9FD2CAE0107F}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="exp7" sheetId="7" r:id="rId7"/>
     <sheet name="exp8" sheetId="8" r:id="rId8"/>
     <sheet name="exp9" sheetId="9" r:id="rId9"/>
+    <sheet name="exp10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="11">
   <si>
     <t>QoS1</t>
   </si>
@@ -2641,12 +2642,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F78290-43A5-0D48-A7A3-9E692E9FB44F}">
-  <dimension ref="A1:F304"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFE6498-BD69-2743-A3AC-297B9165EF88}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2656,7 +2657,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>5</v>
@@ -2689,44 +2690,179 @@
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="2"/>
+      <c r="B3" s="3">
+        <v>605.58310399999971</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1021.9951999999997</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1020.5816639999999</v>
+      </c>
+      <c r="E3" s="3">
+        <v>154.81254399999997</v>
+      </c>
+      <c r="F3" s="3">
+        <v>229.55651199999986</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>376.01791999999983</v>
+      </c>
+      <c r="D4" s="5">
+        <v>251.02838399999993</v>
+      </c>
+      <c r="E4" s="5">
+        <v>807.30249599999968</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="B5" s="3">
+        <f>SUM(B3:B4)/8</f>
+        <v>75.697887999999963</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" ref="C5:F5" si="0">SUM(C3:C4)/8</f>
+        <v>174.75163999999995</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>158.95125599999997</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>120.26437999999996</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>28.694563999999982</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F78290-43A5-0D48-A7A3-9E692E9FB44F}">
+  <dimension ref="A1:F304"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4">
+        <v>608.15001599999982</v>
+      </c>
+      <c r="C3" s="4">
+        <v>593.90191999999956</v>
+      </c>
+      <c r="D3" s="4">
+        <v>593.97996799999953</v>
+      </c>
+      <c r="E3" s="4">
+        <v>144.53622399999995</v>
+      </c>
+      <c r="F3" s="2">
+        <v>202.70799999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>373.26889599999998</v>
+      </c>
+      <c r="D4" s="1">
+        <v>250.4386879999999</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1321.083807999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>9.0709119999999892</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B5" s="4">
         <f>(B3+B4)/8</f>
-        <v>0</v>
+        <v>76.018751999999978</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" ref="C5:F5" si="0">(C3+C4)/8</f>
-        <v>0</v>
+        <v>120.89635199999995</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>105.55233199999992</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>183.20250399999986</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26.472363999999992</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -4832,7 +4968,7 @@
   <dimension ref="A1:F328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4875,20 +5011,41 @@
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="2"/>
+      <c r="B3" s="4">
+        <v>600.37123199999917</v>
+      </c>
+      <c r="C3" s="4">
+        <v>882.00310399999978</v>
+      </c>
+      <c r="D3" s="4">
+        <v>879.46220800000037</v>
+      </c>
+      <c r="E3" s="4">
+        <v>174.86220799999995</v>
+      </c>
+      <c r="F3" s="2">
+        <v>191.33033599999996</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>374.34422399999977</v>
+      </c>
+      <c r="D4" s="1">
+        <v>251.29721599999991</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1045.2448319999994</v>
+      </c>
+      <c r="F4" s="1">
+        <v>22.68595199999999</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -4896,23 +5053,23 @@
       </c>
       <c r="B5" s="4">
         <f>(B3+B4)/8</f>
-        <v>0</v>
+        <v>75.046403999999896</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" ref="C5:F5" si="0">(C3+C4)/8</f>
-        <v>0</v>
+        <v>157.04341599999995</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>141.34492800000004</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>152.51337999999993</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26.752035999999993</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -7179,7 +7336,7 @@
   <dimension ref="A1:F304"/>
   <sheetViews>
     <sheetView topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="B288" sqref="B288"/>
+      <selection activeCell="B292" sqref="B292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9228,20 +9385,41 @@
       <c r="A290" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B290" s="4"/>
-      <c r="C290" s="4"/>
-      <c r="D290" s="4"/>
-      <c r="E290" s="4"/>
-      <c r="F290" s="2"/>
+      <c r="B290" s="4">
+        <v>601.4899199999993</v>
+      </c>
+      <c r="C290" s="4">
+        <v>822.79935999999975</v>
+      </c>
+      <c r="D290" s="4">
+        <v>821.92348799999957</v>
+      </c>
+      <c r="E290" s="4">
+        <v>156.52959999999993</v>
+      </c>
+      <c r="F290" s="2">
+        <v>225.24652799999987</v>
+      </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C291" s="1"/>
-      <c r="D291" s="1"/>
-      <c r="E291" s="1"/>
-      <c r="F291" s="1"/>
+      <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="C291" s="1">
+        <v>374.18812799999984</v>
+      </c>
+      <c r="D291" s="1">
+        <v>248.74764799999991</v>
+      </c>
+      <c r="E291" s="1">
+        <v>1013.7654719999999</v>
+      </c>
+      <c r="F291" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
@@ -9249,23 +9427,23 @@
       </c>
       <c r="B292" s="4">
         <f>(B290+B291)/8</f>
-        <v>0</v>
+        <v>75.186239999999913</v>
       </c>
       <c r="C292" s="4">
         <f t="shared" ref="C292:F292" si="0">(C290+C291)/8</f>
-        <v>0</v>
+        <v>149.62343599999994</v>
       </c>
       <c r="D292" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>133.83389199999993</v>
       </c>
       <c r="E292" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>146.28688399999999</v>
       </c>
       <c r="F292" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28.155815999999984</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
@@ -9362,7 +9540,7 @@
   <dimension ref="A1:F304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9405,40 +9583,65 @@
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="B3" s="3">
+        <v>604.75926400000026</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1320.164575999999</v>
+      </c>
+      <c r="F3" s="3">
+        <v>227.38851199999976</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1129.2418240000002</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1010.6175360000001</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <f>SUM(B3:B4)/8</f>
+        <v>75.594908000000032</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <f t="shared" ref="C5:F5" si="0">SUM(C3:C4)/8</f>
+        <v>141.15522800000002</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>126.32719200000001</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>165.02057199999987</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>28.423563999999971</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -11544,7 +11747,7 @@
   <dimension ref="A1:F304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11587,40 +11790,65 @@
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="B3" s="3">
+        <v>605.66982400000006</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1172.3763519999991</v>
+      </c>
+      <c r="F3" s="3">
+        <v>227.70937599999965</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1164.9704639999995</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1034.6649919999995</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <f>SUM(B3:B4)/8</f>
+        <v>75.708728000000008</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <f t="shared" ref="C5:F5" si="0">SUM(C3:C4)/8</f>
+        <v>145.62130799999994</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>129.33312399999994</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>146.54704399999989</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>28.463671999999956</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -13726,7 +13954,7 @@
   <dimension ref="A1:F304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13769,40 +13997,65 @@
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="B3" s="3">
+        <v>606.61507199999994</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1788.1056959999987</v>
+      </c>
+      <c r="F3" s="3">
+        <v>229.05353599999984</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1008.9438399999993</v>
+      </c>
+      <c r="D4" s="5">
+        <v>883.0871039999995</v>
+      </c>
+      <c r="E4" s="5">
+        <v>11.447039999999998</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <f>SUM(B3:B4)/8</f>
+        <v>75.826883999999993</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <f t="shared" ref="C5:F5" si="0">SUM(C3:C4)/8</f>
+        <v>126.11797999999992</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>110.38588799999994</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>224.94409199999984</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>28.63169199999998</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -15908,7 +16161,7 @@
   <dimension ref="A1:F304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15951,40 +16204,65 @@
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="B3" s="3">
+        <v>605.07145599999967</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1053.9168319999997</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1053.2230719999998</v>
+      </c>
+      <c r="E3" s="3">
+        <v>132.534176</v>
+      </c>
+      <c r="F3" s="3">
+        <v>201.771424</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>375.35017599999998</v>
+      </c>
+      <c r="D4" s="5">
+        <v>254.34108799999987</v>
+      </c>
+      <c r="E4" s="5">
+        <v>663.01775999999995</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.90784</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <f>SUM(B3:B4)/8</f>
+        <v>75.633931999999959</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <f t="shared" ref="C5:F5" si="0">SUM(C3:C4)/8</f>
+        <v>178.65837599999995</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>163.44551999999996</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>99.443991999999994</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>25.459907999999999</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -18089,8 +18367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FC06C1-DD87-3A4B-9BD0-A841DADEE5FA}">
   <dimension ref="A1:F305"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18133,40 +18411,65 @@
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="B3" s="3">
+        <v>605.24489599999959</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1775.8174719999986</v>
+      </c>
+      <c r="F3" s="3">
+        <v>225.96630399999984</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>980.50835199999949</v>
+      </c>
+      <c r="D4" s="5">
+        <v>850.03811200000018</v>
+      </c>
+      <c r="E4" s="5">
+        <v>47.175679999999964</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <f>SUM(B3:B4)/8</f>
+        <v>75.655611999999948</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <f t="shared" ref="C5:F5" si="0">SUM(C3:C4)/8</f>
+        <v>122.56354399999994</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>106.25476400000002</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>227.87414399999983</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>28.24578799999998</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
